--- a/raw_data/20200818_saline/20200818_Sensor2_Test_9.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_9.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C5F84-1038-4380-A1A7-4864C155415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>7570.591459</v>
+        <v>7570.5914590000002</v>
       </c>
       <c r="B2" s="1">
-        <v>2.102942</v>
+        <v>2.1029420000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="D2" s="1">
-        <v>-301.232000</v>
+        <v>-301.23200000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>7580.967301</v>
+        <v>7580.9673009999997</v>
       </c>
       <c r="G2" s="1">
-        <v>2.105824</v>
+        <v>2.1058240000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.460000</v>
+        <v>1269.46</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.631000</v>
+        <v>-260.63099999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>7591.695767</v>
+        <v>7591.6957670000002</v>
       </c>
       <c r="L2" s="1">
-        <v>2.108804</v>
+        <v>2.1088040000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.532000</v>
+        <v>-200.53200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>7601.618234</v>
+        <v>7601.6182339999996</v>
       </c>
       <c r="Q2" s="1">
         <v>2.111561</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.610000</v>
+        <v>1316.61</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.343000</v>
+        <v>-183.34299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>7611.898780</v>
+        <v>7611.8987800000004</v>
       </c>
       <c r="V2" s="1">
-        <v>2.114416</v>
+        <v>2.1144159999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.487000</v>
+        <v>-170.48699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>7622.304850</v>
+        <v>7622.3048500000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.117307</v>
+        <v>2.1173069999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.310000</v>
+        <v>1347.31</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.777000</v>
+        <v>-168.77699999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>7632.567570</v>
+        <v>7632.5675700000002</v>
       </c>
       <c r="AF2" s="1">
         <v>2.120158</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.817000</v>
+        <v>-178.81700000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7642.674084</v>
+        <v>7642.6740840000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.122965</v>
+        <v>2.1229650000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1381.110000</v>
+        <v>1381.11</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.173000</v>
+        <v>-209.173</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>7653.225943</v>
+        <v>7653.2259430000004</v>
       </c>
       <c r="AP2" s="1">
         <v>2.125896</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.730000</v>
+        <v>1402.73</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.454000</v>
+        <v>-253.45400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>7664.191000</v>
+        <v>7664.1909999999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.128942</v>
+        <v>2.1289419999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1427.080000</v>
+        <v>1427.08</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.914000</v>
+        <v>-313.91399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>7675.417649</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.132060</v>
+        <v>2.1320600000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.481000</v>
+        <v>-366.48099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>7686.062090</v>
+        <v>7686.0620900000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.135017</v>
+        <v>2.1350169999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.524000</v>
+        <v>-617.524</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>7697.186365</v>
+        <v>7697.1863649999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.138107</v>
+        <v>2.1381070000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1682.800000</v>
+        <v>1682.8</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1069.720000</v>
+        <v>-1069.72</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>7708.298734</v>
@@ -676,180 +1092,180 @@
         <v>2.141194</v>
       </c>
       <c r="BP2" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1856.390000</v>
+        <v>-1856.39</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>7718.619029</v>
+        <v>7718.6190290000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.144061</v>
+        <v>2.1440610000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2363.820000</v>
+        <v>2363.8200000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2770.620000</v>
+        <v>-2770.62</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>7729.660471</v>
+        <v>7729.6604710000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.147128</v>
+        <v>2.1471279999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2848.510000</v>
+        <v>2848.51</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3768.410000</v>
+        <v>-3768.41</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>7740.954835</v>
+        <v>7740.9548349999995</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.150265</v>
+        <v>2.1502650000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4274.420000</v>
+        <v>4274.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6187.890000</v>
+        <v>-6187.89</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>7571.257090</v>
+        <v>7571.2570900000001</v>
       </c>
       <c r="B3" s="1">
-        <v>2.103127</v>
+        <v>2.1031270000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.290000</v>
+        <v>1243.29</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.973000</v>
+        <v>-300.97300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>7581.616036</v>
+        <v>7581.6160360000003</v>
       </c>
       <c r="G3" s="1">
         <v>2.106004</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.380000</v>
+        <v>1268.3800000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.752000</v>
+        <v>-260.75200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>7592.111421</v>
+        <v>7592.1114209999996</v>
       </c>
       <c r="L3" s="1">
-        <v>2.108920</v>
+        <v>2.1089199999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.580000</v>
+        <v>1304.58</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.140000</v>
+        <v>-201.14</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>7601.971354</v>
+        <v>7601.9713540000002</v>
       </c>
       <c r="Q3" s="1">
         <v>2.111659</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.650000</v>
+        <v>1316.65</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.352000</v>
+        <v>-183.352</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>7612.243996</v>
+        <v>7612.2439960000002</v>
       </c>
       <c r="V3" s="1">
-        <v>2.114512</v>
+        <v>2.1145119999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.401000</v>
+        <v>-170.40100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>7622.687271</v>
+        <v>7622.6872709999998</v>
       </c>
       <c r="AA3" s="1">
         <v>2.117413</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.320000</v>
+        <v>1347.32</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.038000</v>
+        <v>-169.03800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>7632.945521</v>
+        <v>7632.9455209999996</v>
       </c>
       <c r="AF3" s="1">
         <v>2.120263</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.902000</v>
+        <v>-178.90199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>7643.083787</v>
+        <v>7643.0837869999996</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.123079</v>
+        <v>2.1230790000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1381.140000</v>
+        <v>1381.14</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.172000</v>
+        <v>-209.172</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>7653.660965</v>
@@ -858,103 +1274,103 @@
         <v>2.126017</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.690000</v>
+        <v>1402.69</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.379000</v>
+        <v>-253.37899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>7664.631975</v>
+        <v>7664.6319750000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.129064</v>
+        <v>2.1290640000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.120000</v>
+        <v>1427.12</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.910000</v>
+        <v>-313.91000000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>7675.784121</v>
+        <v>7675.7841209999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.132162</v>
+        <v>2.1321620000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.522000</v>
+        <v>-366.52199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>7686.465846</v>
+        <v>7686.4658460000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.135129</v>
+        <v>2.1351290000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.581000</v>
+        <v>-617.58100000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>7697.563847</v>
+        <v>7697.5638470000004</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.138212</v>
+        <v>2.1382119999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.680000</v>
+        <v>1682.68</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1069.700000</v>
+        <v>-1069.7</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>7708.715373</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.141310</v>
+        <v>2.1413099999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1974.870000</v>
+        <v>1974.87</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1856.780000</v>
+        <v>-1856.78</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>7719.116976</v>
+        <v>7719.1169760000002</v>
       </c>
       <c r="BT3" s="1">
         <v>2.144199</v>
       </c>
       <c r="BU3" s="1">
-        <v>2364.070000</v>
+        <v>2364.0700000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2770.580000</v>
+        <v>-2770.58</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>7730.131136</v>
@@ -963,407 +1379,407 @@
         <v>2.147259</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2847.080000</v>
+        <v>2847.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3768.370000</v>
+        <v>-3768.37</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>7741.502913</v>
+        <v>7741.5029130000003</v>
       </c>
       <c r="CD3" s="1">
         <v>2.150417</v>
       </c>
       <c r="CE3" s="1">
-        <v>4285.110000</v>
+        <v>4285.1099999999997</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6199.190000</v>
+        <v>-6199.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>7571.628628</v>
+        <v>7571.6286280000004</v>
       </c>
       <c r="B4" s="1">
-        <v>2.103230</v>
+        <v>2.1032299999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="D4" s="1">
-        <v>-301.138000</v>
+        <v>-301.13799999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>7581.998988</v>
+        <v>7581.9989880000003</v>
       </c>
       <c r="G4" s="1">
-        <v>2.106111</v>
+        <v>2.1061109999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.120000</v>
+        <v>1269.1199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.292000</v>
+        <v>-261.29199999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>7592.458273</v>
+        <v>7592.4582730000002</v>
       </c>
       <c r="L4" s="1">
         <v>2.109016</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.680000</v>
+        <v>1304.68</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.756000</v>
+        <v>-200.756</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>7602.319049</v>
+        <v>7602.3190489999997</v>
       </c>
       <c r="Q4" s="1">
         <v>2.111755</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.600000</v>
+        <v>1316.6</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.323000</v>
+        <v>-183.32300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>7612.589828</v>
+        <v>7612.5898280000001</v>
       </c>
       <c r="V4" s="1">
         <v>2.114608</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.830000</v>
+        <v>1329.83</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.435000</v>
+        <v>-170.435</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>7623.109358</v>
+        <v>7623.1093579999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.117530</v>
+        <v>2.1175299999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.500000</v>
+        <v>1347.5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.831000</v>
+        <v>-168.83099999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>7633.368149</v>
+        <v>7633.3681489999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.120380</v>
+        <v>2.1203799999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.843000</v>
+        <v>-178.84299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>7643.410610</v>
+        <v>7643.4106099999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.123170</v>
+        <v>2.12317</v>
       </c>
       <c r="AL4" s="1">
-        <v>1381.130000</v>
+        <v>1381.13</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.162000</v>
+        <v>-209.16200000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>7654.019541</v>
+        <v>7654.0195409999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.126117</v>
+        <v>2.1261169999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.740000</v>
+        <v>1402.74</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.401000</v>
+        <v>-253.40100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>7664.996998</v>
+        <v>7664.9969979999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.129166</v>
+        <v>2.1291660000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.927000</v>
+        <v>-313.92700000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>7676.140121</v>
+        <v>7676.1401210000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.132261</v>
+        <v>2.1322610000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.497000</v>
+        <v>-366.49700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>7687.187017</v>
+        <v>7687.1870170000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.135330</v>
+        <v>2.1353300000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.558000</v>
+        <v>-617.55799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>7698.315448</v>
+        <v>7698.3154480000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.138421</v>
+        <v>2.1384210000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.740000</v>
+        <v>1682.74</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1069.660000</v>
+        <v>-1069.6600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>7709.116637</v>
+        <v>7709.1166370000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.141421</v>
+        <v>2.1414209999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1974.720000</v>
+        <v>1974.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1856.860000</v>
+        <v>-1856.86</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>7719.585235</v>
+        <v>7719.5852349999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.144329</v>
+        <v>2.1443289999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2363.840000</v>
+        <v>2363.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2770.420000</v>
+        <v>-2770.42</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7730.563648</v>
+        <v>7730.5636480000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.147379</v>
+        <v>2.1473789999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2847.480000</v>
+        <v>2847.48</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3768.420000</v>
+        <v>-3768.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>7742.334724</v>
+        <v>7742.3347240000003</v>
       </c>
       <c r="CD4" s="1">
         <v>2.150649</v>
       </c>
       <c r="CE4" s="1">
-        <v>4276.330000</v>
+        <v>4276.33</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6181.650000</v>
+        <v>-6181.65</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>7571.971859</v>
+        <v>7571.9718590000002</v>
       </c>
       <c r="B5" s="1">
         <v>2.103326</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.600000</v>
+        <v>1243.5999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-301.259000</v>
+        <v>-301.25900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>7582.345187</v>
+        <v>7582.3451869999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2.106207</v>
+        <v>2.1062069999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.360000</v>
+        <v>1268.3599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.194000</v>
+        <v>-261.19400000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>7592.803799</v>
+        <v>7592.8037990000003</v>
       </c>
       <c r="L5" s="1">
-        <v>2.109112</v>
+        <v>2.1091120000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.580000</v>
+        <v>1304.58</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.773000</v>
+        <v>-200.773</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>7602.734216</v>
+        <v>7602.7342159999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.111871</v>
+        <v>2.1118709999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.340000</v>
+        <v>-183.34</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>7613.013291</v>
+        <v>7613.0132910000002</v>
       </c>
       <c r="V5" s="1">
-        <v>2.114726</v>
+        <v>2.1147260000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.433000</v>
+        <v>-170.43299999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>7623.409934</v>
+        <v>7623.4099340000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.117614</v>
+        <v>2.1176140000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.927000</v>
+        <v>-168.92699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>7633.633967</v>
+        <v>7633.6339669999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.120454</v>
+        <v>2.1204540000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.840000</v>
+        <v>-178.84</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>7643.756322</v>
+        <v>7643.7563220000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.123266</v>
+        <v>2.1232660000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1381.120000</v>
+        <v>1381.12</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.152000</v>
+        <v>-209.15199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>7654.381155</v>
@@ -1372,1450 +1788,1450 @@
         <v>2.126217</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.700000</v>
+        <v>1402.7</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.424000</v>
+        <v>-253.42400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>7665.361062</v>
+        <v>7665.3610619999999</v>
       </c>
       <c r="AU5" s="1">
         <v>2.129267</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.120000</v>
+        <v>1427.12</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.935000</v>
+        <v>-313.935</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>7676.864774</v>
+        <v>7676.8647739999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.132462</v>
+        <v>2.1324619999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.240000</v>
+        <v>1446.24</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.492000</v>
+        <v>-366.49200000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>7687.574392</v>
+        <v>7687.5743920000004</v>
       </c>
       <c r="BE5" s="1">
         <v>2.135437</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.601000</v>
+        <v>-617.601</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>7698.709578</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.138530</v>
+        <v>2.1385299999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.720000</v>
+        <v>1682.72</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1069.710000</v>
+        <v>-1069.71</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>7709.517403</v>
+        <v>7709.5174029999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.141533</v>
+        <v>2.1415329999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1974.810000</v>
+        <v>1974.81</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1856.890000</v>
+        <v>-1856.89</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>7719.981007</v>
+        <v>7719.9810070000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.144439</v>
+        <v>2.1444390000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>2364.210000</v>
+        <v>2364.21</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2770.010000</v>
+        <v>-2770.01</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>7731.295247</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.147582</v>
+        <v>2.1475819999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2847.730000</v>
+        <v>2847.73</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3768.430000</v>
+        <v>-3768.43</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>7742.562897</v>
+        <v>7742.5628969999998</v>
       </c>
       <c r="CD5" s="1">
         <v>2.150712</v>
       </c>
       <c r="CE5" s="1">
-        <v>4278.060000</v>
+        <v>4278.0600000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6182.320000</v>
+        <v>-6182.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>7572.314560</v>
+        <v>7572.3145599999998</v>
       </c>
       <c r="B6" s="1">
         <v>2.103421</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.340000</v>
+        <v>1243.3399999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-301.179000</v>
+        <v>-301.17899999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>7582.693381</v>
       </c>
       <c r="G6" s="1">
-        <v>2.106304</v>
+        <v>2.1063040000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.800000</v>
+        <v>1268.8</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.272000</v>
+        <v>-261.27199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>7593.220456</v>
       </c>
       <c r="L6" s="1">
-        <v>2.109228</v>
+        <v>2.1092279999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.500000</v>
+        <v>1304.5</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.843000</v>
+        <v>-200.84299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>7603.032297</v>
+        <v>7603.0322969999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.111953</v>
+        <v>2.1119530000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.520000</v>
+        <v>1316.52</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.322000</v>
+        <v>-183.322</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>7613.290059</v>
+        <v>7613.2900589999999</v>
       </c>
       <c r="V6" s="1">
-        <v>2.114803</v>
+        <v>2.1148030000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.351000</v>
+        <v>-170.351</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>7623.756638</v>
+        <v>7623.7566379999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.117710</v>
+        <v>2.1177100000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.450000</v>
+        <v>1347.45</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.943000</v>
+        <v>-168.94300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>7633.976244</v>
+        <v>7633.9762440000004</v>
       </c>
       <c r="AF6" s="1">
         <v>2.120549</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.440000</v>
+        <v>1360.44</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.833000</v>
+        <v>-178.833</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7644.105506</v>
+        <v>7644.1055059999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.123363</v>
+        <v>2.1233629999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1381.160000</v>
+        <v>1381.16</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.158000</v>
+        <v>-209.15799999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>7655.106276</v>
+        <v>7655.1062760000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.126418</v>
+        <v>2.1264180000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.720000</v>
+        <v>1402.72</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.409000</v>
+        <v>-253.40899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>7666.091205</v>
+        <v>7666.0912049999997</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.129470</v>
+        <v>2.12947</v>
       </c>
       <c r="AV6" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.895000</v>
+        <v>-313.89499999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>7677.243223</v>
+        <v>7677.2432230000004</v>
       </c>
       <c r="AZ6" s="1">
         <v>2.132568</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.486000</v>
+        <v>-366.48599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>7687.956344</v>
+        <v>7687.9563440000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.135543</v>
+        <v>2.1355430000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.502000</v>
+        <v>-617.50199999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>7699.085049</v>
+        <v>7699.0850490000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.138635</v>
+        <v>2.1386349999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.690000</v>
+        <v>1682.69</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1069.620000</v>
+        <v>-1069.6199999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>7710.237098</v>
+        <v>7710.2370979999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.141733</v>
+        <v>2.1417329999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1974.840000</v>
+        <v>1974.84</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1856.980000</v>
+        <v>-1856.98</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>7720.413709</v>
+        <v>7720.4137090000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.144559</v>
+        <v>2.1445590000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2364.130000</v>
+        <v>2364.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2769.550000</v>
+        <v>-2769.55</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>7731.437102</v>
+        <v>7731.4371019999999</v>
       </c>
       <c r="BY6" s="1">
         <v>2.147621</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.000000</v>
+        <v>2848</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3768.270000</v>
+        <v>-3768.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>7743.081679</v>
+        <v>7743.0816789999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.150856</v>
+        <v>2.1508560000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4284.110000</v>
+        <v>4284.1099999999997</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6195.770000</v>
+        <v>-6195.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>7572.753024</v>
+        <v>7572.7530239999996</v>
       </c>
       <c r="B7" s="1">
-        <v>2.103543</v>
+        <v>2.1035430000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.540000</v>
+        <v>1243.54</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.286000</v>
+        <v>-301.286</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>7583.185874</v>
+        <v>7583.1858739999998</v>
       </c>
       <c r="G7" s="1">
-        <v>2.106441</v>
+        <v>2.1064409999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.940000</v>
+        <v>1268.94</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.296000</v>
+        <v>-260.29599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>7593.493237</v>
+        <v>7593.4932369999997</v>
       </c>
       <c r="L7" s="1">
-        <v>2.109304</v>
+        <v>2.1093039999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.800000</v>
+        <v>1304.8</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.927000</v>
+        <v>-200.92699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>7603.382473</v>
+        <v>7603.3824729999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.112051</v>
+        <v>2.1120510000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.298000</v>
+        <v>-183.298</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>7613.633786</v>
+        <v>7613.6337860000003</v>
       </c>
       <c r="V7" s="1">
-        <v>2.114898</v>
+        <v>2.1148980000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.328000</v>
+        <v>-170.328</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>7624.107349</v>
+        <v>7624.1073489999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.117808</v>
+        <v>2.1178080000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.860000</v>
+        <v>-168.86</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>7634.652750</v>
+        <v>7634.6527500000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.120737</v>
+        <v>2.1207370000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.852000</v>
+        <v>-178.852</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>7644.805363</v>
+        <v>7644.8053630000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.123557</v>
+        <v>2.1235569999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1381.120000</v>
+        <v>1381.12</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.183000</v>
+        <v>-209.18299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>7655.485219</v>
+        <v>7655.4852190000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.126524</v>
+        <v>2.1265239999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.700000</v>
+        <v>1402.7</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.384000</v>
+        <v>-253.38399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>7666.483508</v>
+        <v>7666.4835080000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.129579</v>
+        <v>2.1295790000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.910000</v>
+        <v>-313.91000000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>7677.628149</v>
+        <v>7677.6281490000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.132674</v>
+        <v>2.1326740000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.459000</v>
+        <v>-366.459</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>7688.622440</v>
+        <v>7688.6224400000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.135728</v>
+        <v>2.1357279999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.537000</v>
+        <v>-617.53700000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>7699.773993</v>
+        <v>7699.7739929999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.138826</v>
+        <v>2.1388259999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.700000</v>
+        <v>1682.7</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1069.590000</v>
+        <v>-1069.5899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>7710.362588</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.141767</v>
+        <v>2.1417670000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1974.790000</v>
+        <v>1974.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1856.730000</v>
+        <v>-1856.73</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>7720.820237</v>
+        <v>7720.8202369999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.144672</v>
+        <v>2.1446719999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2364.210000</v>
+        <v>2364.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2769.230000</v>
+        <v>-2769.23</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>7731.862670</v>
+        <v>7731.8626700000004</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.147740</v>
+        <v>2.1477400000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2847.130000</v>
+        <v>2847.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3767.760000</v>
+        <v>-3767.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>7743.600494</v>
+        <v>7743.6004940000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.151000</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4294.100000</v>
+        <v>4294.1000000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6177.220000</v>
+        <v>-6177.22</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>7573.015413</v>
+        <v>7573.0154130000001</v>
       </c>
       <c r="B8" s="1">
         <v>2.103615</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.477000</v>
+        <v>-301.47699999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>7583.382327</v>
+        <v>7583.3823270000003</v>
       </c>
       <c r="G8" s="1">
-        <v>2.106495</v>
+        <v>2.1064949999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.870000</v>
+        <v>1268.8699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.084000</v>
+        <v>-261.084</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>7593.836996</v>
       </c>
       <c r="L8" s="1">
-        <v>2.109399</v>
+        <v>2.1093989999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.390000</v>
+        <v>1304.3900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.756000</v>
+        <v>-200.756</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>7603.734168</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.112148</v>
+        <v>2.1121479999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.640000</v>
+        <v>1316.64</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.327000</v>
+        <v>-183.327</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>7613.978042</v>
+        <v>7613.9780419999997</v>
       </c>
       <c r="V8" s="1">
-        <v>2.114994</v>
+        <v>2.1149939999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.970000</v>
+        <v>1329.97</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.330000</v>
+        <v>-170.33</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>7624.801211</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.118000</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.570000</v>
+        <v>1347.57</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>7635.007390</v>
+        <v>7635.0073899999998</v>
       </c>
       <c r="AF8" s="1">
         <v>2.120835</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.440000</v>
+        <v>1360.44</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.859000</v>
+        <v>-178.85900000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>7645.153066</v>
+        <v>7645.1530659999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.123654</v>
+        <v>2.1236540000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1381.130000</v>
+        <v>1381.13</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.122000</v>
+        <v>-209.12200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>7655.845315</v>
+        <v>7655.8453149999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.126624</v>
+        <v>2.1266240000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.720000</v>
+        <v>1402.72</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.408000</v>
+        <v>-253.40799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>7666.849099</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.129680</v>
+        <v>2.12968</v>
       </c>
       <c r="AV8" s="1">
-        <v>1427.120000</v>
+        <v>1427.12</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.905000</v>
+        <v>-313.90499999999997</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>7678.290278</v>
+        <v>7678.2902780000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.132858</v>
+        <v>2.1328580000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.446000</v>
+        <v>-366.44600000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>7689.038614</v>
+        <v>7689.0386140000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.135844</v>
+        <v>2.1358440000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.546000</v>
+        <v>-617.54600000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>7699.883113</v>
+        <v>7699.8831129999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.138856</v>
+        <v>2.1388560000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.710000</v>
+        <v>1682.71</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1069.620000</v>
+        <v>-1069.6199999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>7710.757898</v>
+        <v>7710.7578979999998</v>
       </c>
       <c r="BO8" s="1">
         <v>2.141877</v>
       </c>
       <c r="BP8" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1856.830000</v>
+        <v>-1856.83</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>7721.251788</v>
+        <v>7721.2517879999996</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.144792</v>
+        <v>2.1447919999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2363.910000</v>
+        <v>2363.91</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2769.150000</v>
+        <v>-2769.15</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>7732.280797</v>
+        <v>7732.2807970000003</v>
       </c>
       <c r="BY8" s="1">
         <v>2.147856</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2846.740000</v>
+        <v>2846.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3768.170000</v>
+        <v>-3768.17</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>7744.138191</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.151149</v>
+        <v>2.1511490000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4275.690000</v>
+        <v>4275.6899999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6194.870000</v>
+        <v>-6194.87</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>7573.351697</v>
+        <v>7573.3516970000001</v>
       </c>
       <c r="B9" s="1">
-        <v>2.103709</v>
+        <v>2.1037089999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.277000</v>
+        <v>-301.27699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>7583.726551</v>
+        <v>7583.7265509999997</v>
       </c>
       <c r="G9" s="1">
-        <v>2.106591</v>
+        <v>2.1065909999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1268.850000</v>
+        <v>1268.8499999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.669000</v>
+        <v>-260.66899999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>7594.187668</v>
+        <v>7594.1876679999996</v>
       </c>
       <c r="L9" s="1">
-        <v>2.109497</v>
+        <v>2.1094970000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.035000</v>
+        <v>-201.035</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>7604.428071</v>
+        <v>7604.4280710000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.112341</v>
+        <v>2.1123409999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.600000</v>
+        <v>1316.6</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.363000</v>
+        <v>-183.363</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7614.662986</v>
+        <v>7614.6629860000003</v>
       </c>
       <c r="V9" s="1">
-        <v>2.115184</v>
+        <v>2.1151840000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.486000</v>
+        <v>-170.48599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>7625.147916</v>
+        <v>7625.1479159999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.118097</v>
+        <v>2.1180970000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.882000</v>
+        <v>-168.88200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>7635.348141</v>
+        <v>7635.3481410000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.120930</v>
+        <v>2.12093</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.400000</v>
+        <v>1360.4</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.860000</v>
+        <v>-178.86</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7645.500752</v>
+        <v>7645.5007519999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.123750</v>
+        <v>2.1237499999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1381.150000</v>
+        <v>1381.15</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.137000</v>
+        <v>-209.137</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>7656.518390</v>
+        <v>7656.5183900000002</v>
       </c>
       <c r="AP9" s="1">
         <v>2.126811</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.680000</v>
+        <v>1402.68</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.365000</v>
+        <v>-253.36500000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>7667.511220</v>
+        <v>7667.5112200000003</v>
       </c>
       <c r="AU9" s="1">
         <v>2.129864</v>
       </c>
       <c r="AV9" s="1">
-        <v>1427.130000</v>
+        <v>1427.13</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.925000</v>
+        <v>-313.92500000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>7678.704473</v>
+        <v>7678.7044729999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.132973</v>
+        <v>2.1329729999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.459000</v>
+        <v>-366.459</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>7689.428470</v>
+        <v>7689.4284699999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.135952</v>
+        <v>2.1359520000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.519000</v>
+        <v>-617.51900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>7700.238744</v>
+        <v>7700.2387440000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.138955</v>
+        <v>2.1389550000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.580000</v>
+        <v>1682.58</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1069.630000</v>
+        <v>-1069.6300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>7711.178041</v>
+        <v>7711.1780410000001</v>
       </c>
       <c r="BO9" s="1">
         <v>2.141994</v>
       </c>
       <c r="BP9" s="1">
-        <v>1974.590000</v>
+        <v>1974.59</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1856.640000</v>
+        <v>-1856.64</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>7721.677323</v>
+        <v>7721.6773229999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.144910</v>
+        <v>2.1449099999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.040000</v>
+        <v>2364.04</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2768.290000</v>
+        <v>-2768.29</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>7732.727230</v>
+        <v>7732.7272300000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.147980</v>
+        <v>2.14798</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2847.170000</v>
+        <v>2847.17</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3768.800000</v>
+        <v>-3768.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>7744.678797</v>
+        <v>7744.6787969999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.151300</v>
+        <v>2.1513</v>
       </c>
       <c r="CE9" s="1">
-        <v>4296.890000</v>
+        <v>4296.8900000000003</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6187.280000</v>
+        <v>-6187.28</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>7573.695919</v>
+        <v>7573.6959189999998</v>
       </c>
       <c r="B10" s="1">
-        <v>2.103804</v>
+        <v>2.1038039999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.400000</v>
+        <v>1243.4000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-301.298000</v>
+        <v>-301.298</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>7584.414961</v>
+        <v>7584.4149610000004</v>
       </c>
       <c r="G10" s="1">
-        <v>2.106782</v>
+        <v>2.1067819999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.870000</v>
+        <v>1267.8699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.100000</v>
+        <v>-261.10000000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>7594.877075</v>
+        <v>7594.8770750000003</v>
       </c>
       <c r="L10" s="1">
-        <v>2.109688</v>
+        <v>2.1096879999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.990000</v>
+        <v>1304.99</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.962000</v>
+        <v>-200.96199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>7604.778245</v>
+        <v>7604.7782450000004</v>
       </c>
       <c r="Q10" s="1">
         <v>2.112438</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.434000</v>
+        <v>-183.434</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>7615.007241</v>
+        <v>7615.0072410000002</v>
       </c>
       <c r="V10" s="1">
-        <v>2.115280</v>
+        <v>2.1152799999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.399000</v>
+        <v>-170.399</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>7625.500074</v>
+        <v>7625.5000739999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.118194</v>
+        <v>2.1181939999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.878000</v>
+        <v>-168.87799999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>7635.992445</v>
+        <v>7635.9924449999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.121109</v>
+        <v>2.1211090000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.859000</v>
+        <v>-178.85900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>7646.148064</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.123930</v>
+        <v>2.1239300000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1381.120000</v>
+        <v>1381.12</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>7656.926097</v>
+        <v>7656.9260969999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.126924</v>
+        <v>2.1269239999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.680000</v>
+        <v>1402.68</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.397000</v>
+        <v>-253.39699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>7667.972530</v>
+        <v>7667.97253</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.129992</v>
+        <v>2.1299920000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.100000</v>
+        <v>1427.1</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.887000</v>
+        <v>-313.887</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>7679.092308</v>
+        <v>7679.0923080000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.133081</v>
+        <v>2.1330809999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.458000</v>
+        <v>-366.45800000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>7689.787541</v>
+        <v>7689.7875409999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.136052</v>
+        <v>2.1360519999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.480000</v>
+        <v>1530.48</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.533000</v>
+        <v>-617.53300000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>7700.613255</v>
+        <v>7700.6132550000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>2.139059</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.670000</v>
+        <v>1682.67</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1069.590000</v>
+        <v>-1069.5899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>7711.590681</v>
+        <v>7711.5906809999997</v>
       </c>
       <c r="BO10" s="1">
         <v>2.142109</v>
       </c>
       <c r="BP10" s="1">
-        <v>1974.610000</v>
+        <v>1974.61</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1856.890000</v>
+        <v>-1856.89</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>7722.093009</v>
+        <v>7722.0930090000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.145026</v>
+        <v>2.1450260000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2363.770000</v>
+        <v>2363.77</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2768.070000</v>
+        <v>-2768.07</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>7733.148332</v>
+        <v>7733.1483319999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.148097</v>
+        <v>2.1480969999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2847.530000</v>
+        <v>2847.53</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3767.770000</v>
+        <v>-3767.77</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>7745.218941</v>
+        <v>7745.2189410000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.151450</v>
+        <v>2.1514500000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4275.890000</v>
+        <v>4275.8900000000003</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6180.850000</v>
+        <v>-6180.85</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>7574.379407</v>
+        <v>7574.3794070000004</v>
       </c>
       <c r="B11" s="1">
-        <v>2.103994</v>
+        <v>2.1039940000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.430000</v>
+        <v>1243.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-301.408000</v>
+        <v>-301.40800000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>7584.762658</v>
+        <v>7584.7626579999996</v>
       </c>
       <c r="G11" s="1">
-        <v>2.106879</v>
+        <v>2.1068790000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.543000</v>
+        <v>-260.54300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>7595.225762</v>
@@ -2824,118 +3240,118 @@
         <v>2.109785</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.810000</v>
+        <v>1304.81</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.561000</v>
+        <v>-200.56100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>7605.126933</v>
+        <v>7605.1269329999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.112535</v>
+        <v>2.1125349999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.520000</v>
+        <v>1316.52</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.337000</v>
+        <v>-183.33699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>7615.352921</v>
+        <v>7615.3529209999997</v>
       </c>
       <c r="V11" s="1">
-        <v>2.115376</v>
+        <v>2.1153759999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.480000</v>
+        <v>-170.48</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>7626.147882</v>
+        <v>7626.1478820000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.118374</v>
+        <v>2.1183740000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.500000</v>
+        <v>1347.5</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.914000</v>
+        <v>-168.91399999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>7636.380316</v>
+        <v>7636.3803159999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.121217</v>
+        <v>2.1212170000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.470000</v>
+        <v>1360.47</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.823000</v>
+        <v>-178.82300000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>7646.546814</v>
+        <v>7646.5468140000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.124041</v>
+        <v>2.1240410000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1381.100000</v>
+        <v>1381.1</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.130000</v>
+        <v>-209.13</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>7657.305041</v>
+        <v>7657.3050409999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.127029</v>
+        <v>2.1270289999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.720000</v>
+        <v>1402.72</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>7668.362850</v>
+        <v>7668.3628500000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.130101</v>
+        <v>2.1301009999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.894000</v>
+        <v>-313.89400000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>7679.451411</v>
@@ -2944,497 +3360,497 @@
         <v>2.133181</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.452000</v>
+        <v>-366.452</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>7690.200213</v>
+        <v>7690.2002130000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.136167</v>
+        <v>2.1361669999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.559000</v>
+        <v>-617.55899999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>7701.024406</v>
+        <v>7701.0244060000005</v>
       </c>
       <c r="BJ11" s="1">
         <v>2.139173</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1069.600000</v>
+        <v>-1069.5999999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>7712.000906</v>
+        <v>7712.0009060000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.142222</v>
+        <v>2.1422219999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1974.610000</v>
+        <v>1974.61</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1856.790000</v>
+        <v>-1856.79</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>7722.521514</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.145145</v>
+        <v>2.1451449999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2363.730000</v>
+        <v>2363.73</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2767.480000</v>
+        <v>-2767.48</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>7733.570397</v>
+        <v>7733.5703970000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.148214</v>
+        <v>2.1482139999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2847.590000</v>
+        <v>2847.59</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3767.850000</v>
+        <v>-3767.85</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>7745.757629</v>
+        <v>7745.7576289999997</v>
       </c>
       <c r="CD11" s="1">
         <v>2.151599</v>
       </c>
       <c r="CE11" s="1">
-        <v>4289.140000</v>
+        <v>4289.1400000000003</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6195.020000</v>
+        <v>-6195.02</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>7574.721645</v>
+        <v>7574.7216449999996</v>
       </c>
       <c r="B12" s="1">
-        <v>2.104089</v>
+        <v>2.1040890000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.670000</v>
+        <v>1243.67</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.344000</v>
+        <v>-301.34399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>7585.106416</v>
+        <v>7585.1064159999996</v>
       </c>
       <c r="G12" s="1">
-        <v>2.106974</v>
+        <v>2.1069740000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.550000</v>
+        <v>1268.55</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.980000</v>
+        <v>-260.98</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>7595.568994</v>
+        <v>7595.5689940000002</v>
       </c>
       <c r="L12" s="1">
-        <v>2.109880</v>
+        <v>2.10988</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.820000</v>
+        <v>1304.82</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.043000</v>
+        <v>-201.04300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>7605.772725</v>
+        <v>7605.7727249999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.112715</v>
+        <v>2.1127150000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.245000</v>
+        <v>-183.245</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>7616.004695</v>
+        <v>7616.0046949999996</v>
       </c>
       <c r="V12" s="1">
-        <v>2.115557</v>
+        <v>2.1155569999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.980000</v>
+        <v>1329.98</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.469000</v>
+        <v>-170.46899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>7626.545642</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.118485</v>
+        <v>2.1184850000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.510000</v>
+        <v>1347.51</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>7636.723547</v>
+        <v>7636.7235469999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.121312</v>
+        <v>2.1213120000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.879000</v>
+        <v>-178.87899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>7646.893518</v>
+        <v>7646.8935179999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.124137</v>
+        <v>2.1241370000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1381.050000</v>
+        <v>1381.05</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>7657.669195</v>
+        <v>7657.6691950000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.127130</v>
+        <v>2.1271300000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.730000</v>
+        <v>1402.73</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.390000</v>
+        <v>-253.39</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>7668.937250</v>
+        <v>7668.9372499999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.130260</v>
+        <v>2.1302599999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1427.140000</v>
+        <v>1427.14</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.875000</v>
+        <v>-313.875</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>7679.866562</v>
+        <v>7679.8665620000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.133296</v>
+        <v>2.1332960000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.240000</v>
+        <v>1446.24</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.455000</v>
+        <v>-366.45499999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>7690.512228</v>
+        <v>7690.5122279999996</v>
       </c>
       <c r="BE12" s="1">
         <v>2.136253</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG12" s="1">
-        <v>-617.536000</v>
+        <v>-617.53599999999994</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>7701.365654</v>
+        <v>7701.3656540000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.139268</v>
+        <v>2.1392679999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1069.670000</v>
+        <v>-1069.67</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>7712.399159</v>
+        <v>7712.3991589999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.142333</v>
+        <v>2.1423329999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1974.580000</v>
+        <v>1974.58</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1856.680000</v>
+        <v>-1856.68</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>7722.935210</v>
+        <v>7722.9352099999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.145260</v>
+        <v>2.1452599999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2363.250000</v>
+        <v>2363.25</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2767.590000</v>
+        <v>-2767.59</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>7734.017292</v>
+        <v>7734.0172920000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.148338</v>
+        <v>2.1483379999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2846.470000</v>
+        <v>2846.47</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3767.900000</v>
+        <v>-3767.9</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>7746.298768</v>
+        <v>7746.2987679999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.151750</v>
+        <v>2.1517499999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4291.470000</v>
+        <v>4291.47</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6175.250000</v>
+        <v>-6175.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>7575.065373</v>
+        <v>7575.0653730000004</v>
       </c>
       <c r="B13" s="1">
-        <v>2.104185</v>
+        <v>2.1041850000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-301.151000</v>
+        <v>-301.15100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>7585.753663</v>
+        <v>7585.7536630000004</v>
       </c>
       <c r="G13" s="1">
         <v>2.107154</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.350000</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.797000</v>
+        <v>-260.79700000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>7596.221729</v>
+        <v>7596.2217289999999</v>
       </c>
       <c r="L13" s="1">
-        <v>2.110062</v>
+        <v>2.1100620000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.570000</v>
+        <v>1304.57</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.665000</v>
+        <v>-200.66499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>7606.172004</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.112826</v>
+        <v>2.1128260000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.620000</v>
+        <v>1316.62</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.288000</v>
+        <v>-183.28800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>7616.382118</v>
+        <v>7616.3821180000004</v>
       </c>
       <c r="V13" s="1">
-        <v>2.115662</v>
+        <v>2.1156619999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.970000</v>
+        <v>1329.97</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.410000</v>
+        <v>-170.41</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>7626.895354</v>
+        <v>7626.8953540000002</v>
       </c>
       <c r="AA13" s="1">
         <v>2.118582</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.641000</v>
+        <v>-168.64099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>7637.068764</v>
+        <v>7637.0687639999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.121408</v>
+        <v>2.1214080000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.889000</v>
+        <v>-178.88900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>7647.241723</v>
+        <v>7647.2417230000001</v>
       </c>
       <c r="AK13" s="1">
         <v>2.124234</v>
       </c>
       <c r="AL13" s="1">
-        <v>1381.090000</v>
+        <v>1381.09</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.117000</v>
+        <v>-209.11699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>7658.080783</v>
+        <v>7658.0807830000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.127245</v>
+        <v>2.1272449999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.690000</v>
+        <v>1402.69</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.386000</v>
+        <v>-253.386</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>7669.065681</v>
@@ -3443,422 +3859,422 @@
         <v>2.130296</v>
       </c>
       <c r="AV13" s="1">
-        <v>1427.100000</v>
+        <v>1427.1</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.893000</v>
+        <v>-313.89299999999997</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>7680.168628</v>
+        <v>7680.1686280000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.133380</v>
+        <v>2.1333799999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.462000</v>
+        <v>-366.46199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>7690.875268</v>
+        <v>7690.8752679999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.136354</v>
+        <v>2.1363539999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.533000</v>
+        <v>-617.53300000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>7701.765116</v>
+        <v>7701.7651159999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.139379</v>
+        <v>2.1393789999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.600000</v>
+        <v>1682.6</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1069.500000</v>
+        <v>-1069.5</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>7712.819768</v>
+        <v>7712.8197680000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.142450</v>
+        <v>2.1424500000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1974.610000</v>
+        <v>1974.61</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1856.830000</v>
+        <v>-1856.83</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>7723.362731</v>
+        <v>7723.3627310000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.145379</v>
+        <v>2.1453790000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2363.250000</v>
+        <v>2363.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2766.740000</v>
+        <v>-2766.74</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>7734.446332</v>
+        <v>7734.4463320000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.148457</v>
+        <v>2.1484570000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2847.070000</v>
+        <v>2847.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3768.370000</v>
+        <v>-3768.37</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>7746.835898</v>
+        <v>7746.8358980000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.151899</v>
+        <v>2.1518989999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>4275.590000</v>
+        <v>4275.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6194.060000</v>
+        <v>-6194.06</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>7575.721612</v>
+        <v>7575.7216120000003</v>
       </c>
       <c r="B14" s="1">
-        <v>2.104367</v>
+        <v>2.1043669999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.402000</v>
+        <v>-301.40199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>7586.142276</v>
+        <v>7586.1422759999996</v>
       </c>
       <c r="G14" s="1">
         <v>2.107262</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.100000</v>
+        <v>1269.0999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.392000</v>
+        <v>-260.392</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>7596.607123</v>
+        <v>7596.6071229999998</v>
       </c>
       <c r="L14" s="1">
         <v>2.110169</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.930000</v>
+        <v>1304.93</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.793000</v>
+        <v>-200.79300000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>7606.519172</v>
+        <v>7606.5191720000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.112922</v>
+        <v>2.1129220000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.670000</v>
+        <v>1316.67</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.271000</v>
+        <v>-183.27099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>7616.945607</v>
+        <v>7616.9456069999997</v>
       </c>
       <c r="V14" s="1">
         <v>2.115818</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.459000</v>
+        <v>-170.459</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>7627.242521</v>
+        <v>7627.2425210000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.118678</v>
+        <v>2.1186780000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.300000</v>
+        <v>1347.3</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.918000</v>
+        <v>-168.91800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>7637.484411</v>
+        <v>7637.4844110000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.121523</v>
+        <v>2.1215229999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.867000</v>
+        <v>-178.86699999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7647.664301</v>
+        <v>7647.6643009999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.124351</v>
+        <v>2.1243509999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1381.140000</v>
+        <v>1381.14</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.150000</v>
+        <v>-209.15</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>7658.390319</v>
+        <v>7658.3903190000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.127331</v>
+        <v>2.1273309999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.650000</v>
+        <v>1402.65</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.414000</v>
+        <v>-253.41399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>7669.459506</v>
+        <v>7669.4595060000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.130405</v>
+        <v>2.1304050000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1427.120000</v>
+        <v>1427.12</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.861000</v>
+        <v>-313.86099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>7680.527234</v>
+        <v>7680.5272340000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.133480</v>
+        <v>2.13348</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.438000</v>
+        <v>-366.43799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>7691.234900</v>
+        <v>7691.2349000000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.136454</v>
+        <v>2.1364540000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.514000</v>
+        <v>-617.51400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>7702.138917</v>
+        <v>7702.1389170000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.139483</v>
+        <v>2.1394829999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.720000</v>
+        <v>1682.72</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1069.520000</v>
+        <v>-1069.52</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>7713.235910</v>
+        <v>7713.2359100000003</v>
       </c>
       <c r="BO14" s="1">
         <v>2.142566</v>
       </c>
       <c r="BP14" s="1">
-        <v>1974.790000</v>
+        <v>1974.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1856.560000</v>
+        <v>-1856.56</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>7723.789784</v>
+        <v>7723.7897839999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.145497</v>
+        <v>2.1454970000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2362.680000</v>
+        <v>2362.6799999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2766.720000</v>
+        <v>-2766.72</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>7734.871402</v>
+        <v>7734.8714019999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.148575</v>
+        <v>2.1485750000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2847.700000</v>
+        <v>2847.7</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3767.140000</v>
+        <v>-3767.14</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>7747.379513</v>
+        <v>7747.3795129999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.152050</v>
+        <v>2.15205</v>
       </c>
       <c r="CE14" s="1">
-        <v>4297.640000</v>
+        <v>4297.6400000000003</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6185.880000</v>
+        <v>-6185.88</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>7576.087163</v>
+        <v>7576.0871630000001</v>
       </c>
       <c r="B15" s="1">
-        <v>2.104469</v>
+        <v>2.1044689999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.400000</v>
+        <v>1243.4000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.237000</v>
+        <v>-301.23700000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>7586.486784</v>
+        <v>7586.4867839999997</v>
       </c>
       <c r="G15" s="1">
-        <v>2.107357</v>
+        <v>2.1073569999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.840000</v>
+        <v>1268.8399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.852000</v>
+        <v>-260.85199999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>7596.953824</v>
+        <v>7596.9538240000002</v>
       </c>
       <c r="L15" s="1">
-        <v>2.110265</v>
+        <v>2.1102650000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.496000</v>
+        <v>-200.49600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>7606.867859</v>
@@ -3867,43 +4283,43 @@
         <v>2.113019</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.630000</v>
+        <v>1316.63</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.357000</v>
+        <v>-183.357</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>7617.083461</v>
+        <v>7617.0834610000002</v>
       </c>
       <c r="V15" s="1">
-        <v>2.115857</v>
+        <v>2.1158570000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.447000</v>
+        <v>-170.447</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>7627.658696</v>
+        <v>7627.6586960000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.118794</v>
+        <v>2.1187939999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.250000</v>
+        <v>1347.25</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.857000</v>
+        <v>-168.857</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>7637.774093</v>
@@ -3912,1176 +4328,1176 @@
         <v>2.121604</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.848000</v>
+        <v>-178.84800000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>7647.956941</v>
+        <v>7647.9569410000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.124432</v>
+        <v>2.1244320000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1381.100000</v>
+        <v>1381.1</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.168000</v>
+        <v>-209.16800000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>7658.750384</v>
+        <v>7658.7503839999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.127431</v>
+        <v>2.1274310000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.710000</v>
+        <v>1402.71</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.388000</v>
+        <v>-253.38800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>7669.826047</v>
+        <v>7669.8260469999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.130507</v>
+        <v>2.1305070000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.887000</v>
+        <v>-313.887</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>7680.888321</v>
+        <v>7680.8883210000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.133580</v>
+        <v>2.1335799999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.470000</v>
+        <v>-366.47</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>7691.955554</v>
+        <v>7691.9555540000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.136654</v>
+        <v>2.1366540000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.562000</v>
+        <v>-617.56200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>7702.889860</v>
+        <v>7702.8898600000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.139692</v>
+        <v>2.1396920000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.700000</v>
+        <v>1682.7</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1069.550000</v>
+        <v>-1069.55</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>7713.633734</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.142676</v>
+        <v>2.1426759999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1974.630000</v>
+        <v>1974.63</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1856.700000</v>
+        <v>-1856.7</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>7724.205432</v>
+        <v>7724.2054319999997</v>
       </c>
       <c r="BT15" s="1">
         <v>2.145613</v>
       </c>
       <c r="BU15" s="1">
-        <v>2362.310000</v>
+        <v>2362.31</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2766.360000</v>
+        <v>-2766.36</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>7735.290521</v>
+        <v>7735.2905209999999</v>
       </c>
       <c r="BY15" s="1">
         <v>2.148692</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2846.650000</v>
+        <v>2846.65</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3767.330000</v>
+        <v>-3767.33</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>7748.211833</v>
+        <v>7748.2118330000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.152281</v>
+        <v>2.1522809999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4282.400000</v>
+        <v>4282.3999999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6196.600000</v>
+        <v>-6196.6</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>7576.434331</v>
+        <v>7576.4343310000004</v>
       </c>
       <c r="B16" s="1">
         <v>2.104565</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="D16" s="1">
-        <v>-301.353000</v>
+        <v>-301.35300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>7586.831470</v>
+        <v>7586.8314700000001</v>
       </c>
       <c r="G16" s="1">
         <v>2.107453</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.720000</v>
+        <v>1268.72</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.821000</v>
+        <v>-260.82100000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>7597.298086</v>
+        <v>7597.2980859999998</v>
       </c>
       <c r="L16" s="1">
-        <v>2.110361</v>
+        <v>2.1103610000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.630000</v>
+        <v>1304.6300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.905000</v>
+        <v>-200.905</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>7607.278546</v>
+        <v>7607.2785459999996</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.113133</v>
+        <v>2.1131329999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.550000</v>
+        <v>1316.55</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.351000</v>
+        <v>-183.351</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>7617.756534</v>
+        <v>7617.7565340000001</v>
       </c>
       <c r="V16" s="1">
-        <v>2.116043</v>
+        <v>2.1160429999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.760000</v>
+        <v>1329.76</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.495000</v>
+        <v>-170.495</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>7627.951335</v>
+        <v>7627.9513349999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.118875</v>
+        <v>2.1188750000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.400000</v>
+        <v>1347.4</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.702000</v>
+        <v>-168.702</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>7638.118298</v>
+        <v>7638.1182980000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.121700</v>
+        <v>2.1217000000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.838000</v>
+        <v>-178.83799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>7648.305165</v>
+        <v>7648.3051649999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.124529</v>
+        <v>2.1245289999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1381.090000</v>
+        <v>1381.09</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.144000</v>
+        <v>-209.14400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>7659.111966</v>
+        <v>7659.1119660000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.127531</v>
+        <v>2.1275309999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.680000</v>
+        <v>1402.68</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.373000</v>
+        <v>-253.37299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>7670.554176</v>
+        <v>7670.5541759999996</v>
       </c>
       <c r="AU16" s="1">
         <v>2.130709</v>
       </c>
       <c r="AV16" s="1">
-        <v>1427.130000</v>
+        <v>1427.13</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.864000</v>
+        <v>-313.86399999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>7681.609536</v>
+        <v>7681.6095359999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.133780</v>
+        <v>2.1337799999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.443000</v>
+        <v>-366.44299999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>7692.346439</v>
+        <v>7692.3464389999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.136763</v>
+        <v>2.1367630000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.519000</v>
+        <v>-617.51900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>7703.265828</v>
+        <v>7703.2658279999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>2.139796</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.620000</v>
+        <v>1682.62</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1069.570000</v>
+        <v>-1069.57</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>7714.032485</v>
+        <v>7714.0324849999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.142787</v>
+        <v>2.1427870000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1974.430000</v>
+        <v>1974.43</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1856.540000</v>
+        <v>-1856.54</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>7724.931575</v>
+        <v>7724.9315749999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.145814</v>
+        <v>2.1458140000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2361.870000</v>
+        <v>2361.87</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2766.380000</v>
+        <v>-2766.38</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>7736.011212</v>
+        <v>7736.0112120000003</v>
       </c>
       <c r="BY16" s="1">
         <v>2.148892</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2847.070000</v>
+        <v>2847.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3767.710000</v>
+        <v>-3767.71</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>7748.457816</v>
+        <v>7748.4578160000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.152349</v>
+        <v>2.1523490000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4284.840000</v>
+        <v>4284.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6197.890000</v>
+        <v>-6197.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>7576.774587</v>
+        <v>7576.7745869999999</v>
       </c>
       <c r="B17" s="1">
-        <v>2.104660</v>
+        <v>2.10466</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-301.138000</v>
+        <v>-301.13799999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>7587.243150</v>
+        <v>7587.2431500000002</v>
       </c>
       <c r="G17" s="1">
-        <v>2.107568</v>
+        <v>2.1075680000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.145000</v>
+        <v>-261.14499999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>7597.726096</v>
+        <v>7597.7260960000003</v>
       </c>
       <c r="L17" s="1">
-        <v>2.110479</v>
+        <v>2.1104790000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.690000</v>
+        <v>1304.69</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.710000</v>
+        <v>-200.71</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7607.577635</v>
+        <v>7607.5776349999996</v>
       </c>
       <c r="Q17" s="1">
         <v>2.113216</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.401000</v>
+        <v>-183.40100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>7618.099766</v>
+        <v>7618.0997660000003</v>
       </c>
       <c r="V17" s="1">
         <v>2.116139</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.358000</v>
+        <v>-170.358</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>7628.298999</v>
+        <v>7628.2989989999996</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.118972</v>
+        <v>2.1189719999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.410000</v>
+        <v>1347.41</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.005000</v>
+        <v>-169.005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>7638.460041</v>
+        <v>7638.4600410000003</v>
       </c>
       <c r="AF17" s="1">
         <v>2.121794</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.830000</v>
+        <v>-178.83</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>7648.653821</v>
+        <v>7648.6538209999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.124626</v>
+        <v>2.1246260000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1381.130000</v>
+        <v>1381.13</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.130000</v>
+        <v>-209.13</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>7659.831165</v>
+        <v>7659.8311649999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.127731</v>
+        <v>2.1277309999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.670000</v>
+        <v>1402.67</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.334000</v>
+        <v>-253.334</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>7670.945024</v>
+        <v>7670.9450239999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.130818</v>
+        <v>2.1308180000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1427.080000</v>
+        <v>1427.08</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.886000</v>
+        <v>-313.88600000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>7681.985504</v>
+        <v>7681.9855040000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.133885</v>
+        <v>2.1338849999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.240000</v>
+        <v>1446.24</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.420000</v>
+        <v>-366.42</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>7692.724850</v>
+        <v>7692.7248499999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.136868</v>
+        <v>2.1368680000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.571000</v>
+        <v>-617.57100000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>7703.940387</v>
+        <v>7703.9403869999996</v>
       </c>
       <c r="BJ17" s="1">
         <v>2.139983</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.650000</v>
+        <v>1682.65</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1069.590000</v>
+        <v>-1069.5899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>7714.757638</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.142988</v>
+        <v>2.1429879999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1974.640000</v>
+        <v>1974.64</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1856.480000</v>
+        <v>-1856.48</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>7725.061558</v>
+        <v>7725.0615580000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.145850</v>
+        <v>2.1458499999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2361.480000</v>
+        <v>2361.48</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2766.050000</v>
+        <v>-2766.05</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>7736.134216</v>
+        <v>7736.1342160000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.148926</v>
+        <v>2.1489259999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2846.950000</v>
+        <v>2846.95</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3767.650000</v>
+        <v>-3767.65</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>7748.975639</v>
+        <v>7748.9756390000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.152493</v>
+        <v>2.1524930000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>4298.060000</v>
+        <v>4298.0600000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6185.620000</v>
+        <v>-6185.62</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>7577.200651</v>
+        <v>7577.2006510000001</v>
       </c>
       <c r="B18" s="1">
         <v>2.104778</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.410000</v>
+        <v>1243.4100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-300.976000</v>
+        <v>-300.976</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7587.521405</v>
+        <v>7587.5214050000004</v>
       </c>
       <c r="G18" s="1">
-        <v>2.107645</v>
+        <v>2.1076450000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.033000</v>
+        <v>-261.03300000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>7598.007344</v>
+        <v>7598.0073439999996</v>
       </c>
       <c r="L18" s="1">
-        <v>2.110558</v>
+        <v>2.1105580000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.943000</v>
+        <v>-200.94300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>7607.924337</v>
+        <v>7607.9243370000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.113312</v>
+        <v>2.1133120000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.520000</v>
+        <v>1316.52</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.240000</v>
+        <v>-183.24</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>7618.446964</v>
+        <v>7618.4469639999998</v>
       </c>
       <c r="V18" s="1">
-        <v>2.116235</v>
+        <v>2.1162350000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.362000</v>
+        <v>-170.36199999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>7628.649210</v>
+        <v>7628.6492099999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.119069</v>
+        <v>2.1190690000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.430000</v>
+        <v>1347.43</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.920000</v>
+        <v>-168.92</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>7639.146505</v>
+        <v>7639.1465049999997</v>
       </c>
       <c r="AF18" s="1">
         <v>2.121985</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.440000</v>
+        <v>1360.44</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.907000</v>
+        <v>-178.90700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>7649.350730</v>
+        <v>7649.3507300000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.124820</v>
+        <v>2.1248200000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1381.090000</v>
+        <v>1381.09</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.140000</v>
+        <v>-209.14</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>7660.188318</v>
+        <v>7660.1883180000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.127830</v>
+        <v>2.1278299999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.650000</v>
+        <v>1402.65</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.427000</v>
+        <v>-253.42699999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>7671.309119</v>
+        <v>7671.3091189999996</v>
       </c>
       <c r="AU18" s="1">
         <v>2.130919</v>
       </c>
       <c r="AV18" s="1">
-        <v>1427.080000</v>
+        <v>1427.08</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.867000</v>
+        <v>-313.86700000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>7682.362464</v>
+        <v>7682.3624639999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.133990</v>
+        <v>2.1339899999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.456000</v>
+        <v>-366.45600000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>7693.389489</v>
+        <v>7693.3894890000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.137053</v>
+        <v>2.1370529999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.537000</v>
+        <v>-617.53700000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>7704.423986</v>
+        <v>7704.4239859999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.140118</v>
+        <v>2.1401180000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.660000</v>
+        <v>1682.66</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1069.510000</v>
+        <v>-1069.51</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>7714.877209</v>
+        <v>7714.8772090000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.143021</v>
+        <v>2.1430210000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1974.520000</v>
+        <v>1974.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1856.530000</v>
+        <v>-1856.53</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>7725.471223</v>
+        <v>7725.4712229999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.145964</v>
+        <v>2.1459640000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2360.870000</v>
+        <v>2360.87</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2766.150000</v>
+        <v>-2766.15</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>7736.569209</v>
+        <v>7736.5692090000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.149047</v>
+        <v>2.1490469999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2846.430000</v>
+        <v>2846.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3767.490000</v>
+        <v>-3767.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>7749.492471</v>
+        <v>7749.4924709999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.152637</v>
+        <v>2.1526369999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4275.370000</v>
+        <v>4275.37</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6181.800000</v>
+        <v>-6181.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>7577.474970</v>
+        <v>7577.4749700000002</v>
       </c>
       <c r="B19" s="1">
         <v>2.104854</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="D19" s="1">
-        <v>-300.999000</v>
+        <v>-300.99900000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>7587.866620</v>
+        <v>7587.8666199999998</v>
       </c>
       <c r="G19" s="1">
-        <v>2.107741</v>
+        <v>2.1077409999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.810000</v>
+        <v>1268.81</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.448000</v>
+        <v>-261.44799999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>7598.353038</v>
+        <v>7598.3530380000002</v>
       </c>
       <c r="L19" s="1">
-        <v>2.110654</v>
+        <v>2.1106539999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.550000</v>
+        <v>1304.55</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.519000</v>
+        <v>-200.51900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>7608.274017</v>
+        <v>7608.2740169999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.113409</v>
+        <v>2.1134089999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.290000</v>
+        <v>-183.29</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>7619.122029</v>
+        <v>7619.1220290000001</v>
       </c>
       <c r="V19" s="1">
-        <v>2.116423</v>
+        <v>2.1164230000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.298000</v>
+        <v>-170.298</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>7629.344565</v>
+        <v>7629.3445650000003</v>
       </c>
       <c r="AA19" s="1">
         <v>2.119262</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.903000</v>
+        <v>-168.90299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>7639.490232</v>
+        <v>7639.4902320000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.122081</v>
+        <v>2.1220810000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.842000</v>
+        <v>-178.84200000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>7649.699883</v>
+        <v>7649.6998830000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.124917</v>
+        <v>2.1249169999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1381.120000</v>
+        <v>1381.12</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.119000</v>
+        <v>-209.119</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>7660.549372</v>
+        <v>7660.5493720000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.127930</v>
+        <v>2.1279300000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.720000</v>
+        <v>1402.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.363000</v>
+        <v>-253.363</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>7671.968766</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.131102</v>
+        <v>2.1311019999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1427.100000</v>
+        <v>1427.1</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.908000</v>
+        <v>-313.90800000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>7683.029087</v>
+        <v>7683.0290869999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.134175</v>
+        <v>2.1341749999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.451000</v>
+        <v>-366.45100000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>7693.809104</v>
+        <v>7693.8091039999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.137169</v>
+        <v>2.1371690000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.518000</v>
+        <v>-617.51800000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>7704.798995</v>
+        <v>7704.7989950000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.140222</v>
+        <v>2.1402220000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.620000</v>
+        <v>1682.62</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1069.460000</v>
+        <v>-1069.46</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>7715.272516</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.143131</v>
+        <v>2.1431309999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1974.450000</v>
+        <v>1974.45</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1856.510000</v>
+        <v>-1856.51</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>7725.902273</v>
+        <v>7725.9022729999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.146084</v>
+        <v>2.1460840000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2360.480000</v>
+        <v>2360.48</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2766.240000</v>
+        <v>-2766.24</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>7737.084089</v>
+        <v>7737.0840889999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.149190</v>
+        <v>2.1491899999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2847.490000</v>
+        <v>2847.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3767.420000</v>
+        <v>-3767.42</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>7750.033606</v>
@@ -5090,16 +5506,16 @@
         <v>2.152787</v>
       </c>
       <c r="CE19" s="1">
-        <v>4290.570000</v>
+        <v>4290.57</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6194.460000</v>
+        <v>-6194.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>7577.815227</v>
       </c>
@@ -5107,1797 +5523,1798 @@
         <v>2.104949</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.320000</v>
+        <v>1243.32</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.095000</v>
+        <v>-301.09500000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7588.211340</v>
+        <v>7588.2113399999998</v>
       </c>
       <c r="G20" s="1">
-        <v>2.107836</v>
+        <v>2.1078359999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.520000</v>
+        <v>1268.52</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.077000</v>
+        <v>-261.077</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7598.699246</v>
+        <v>7598.6992460000001</v>
       </c>
       <c r="L20" s="1">
-        <v>2.110750</v>
+        <v>2.1107499999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.400000</v>
+        <v>1304.4000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.808000</v>
+        <v>-200.80799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>7608.970401</v>
+        <v>7608.9704009999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.113603</v>
+        <v>2.1136029999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.660000</v>
+        <v>1316.66</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.354000</v>
+        <v>-183.35400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>7619.475668</v>
       </c>
       <c r="V20" s="1">
-        <v>2.116521</v>
+        <v>2.1165210000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.394000</v>
+        <v>-170.39400000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>7629.693780</v>
+        <v>7629.6937799999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.119359</v>
+        <v>2.1193590000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.430000</v>
+        <v>1347.43</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.771000</v>
+        <v>-168.77099999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>7639.834984</v>
+        <v>7639.8349840000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.122176</v>
+        <v>2.1221760000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.849000</v>
+        <v>-178.84899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>7650.077338</v>
+        <v>7650.0773380000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.125021</v>
+        <v>2.1250209999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1381.090000</v>
+        <v>1381.09</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.144000</v>
+        <v>-209.14400000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>7661.217979</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.128116</v>
+        <v>2.1281159999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.710000</v>
+        <v>1402.71</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>7672.435507</v>
+        <v>7672.4355070000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.131232</v>
+        <v>2.1312319999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1427.120000</v>
+        <v>1427.12</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.854000</v>
+        <v>-313.85399999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>7683.447182</v>
+        <v>7683.4471819999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.134291</v>
+        <v>2.1342910000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.240000</v>
+        <v>1446.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.432000</v>
+        <v>-366.43200000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>7694.201936</v>
+        <v>7694.2019360000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.137278</v>
+        <v>2.1372779999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.481000</v>
+        <v>-617.48099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>7705.203202</v>
+        <v>7705.2032019999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.140334</v>
+        <v>2.1403340000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.640000</v>
+        <v>1682.64</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1069.530000</v>
+        <v>-1069.53</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>7715.696067</v>
+        <v>7715.6960669999999</v>
       </c>
       <c r="BO20" s="1">
         <v>2.143249</v>
       </c>
       <c r="BP20" s="1">
-        <v>1974.520000</v>
+        <v>1974.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1856.570000</v>
+        <v>-1856.57</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>7726.332773</v>
+        <v>7726.3327730000001</v>
       </c>
       <c r="BT20" s="1">
         <v>2.146204</v>
       </c>
       <c r="BU20" s="1">
-        <v>2360.150000</v>
+        <v>2360.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2766.570000</v>
+        <v>-2766.57</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>7737.896007</v>
+        <v>7737.8960070000003</v>
       </c>
       <c r="BY20" s="1">
         <v>2.149416</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2846.810000</v>
+        <v>2846.81</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3767.070000</v>
+        <v>-3767.07</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>7750.575733</v>
+        <v>7750.5757329999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.152938</v>
+        <v>2.1529379999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4287.610000</v>
+        <v>4287.6099999999997</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6175.560000</v>
+        <v>-6175.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>7578.159417</v>
+        <v>7578.1594169999998</v>
       </c>
       <c r="B21" s="1">
-        <v>2.105044</v>
+        <v>2.1050439999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="D21" s="1">
-        <v>-301.449000</v>
+        <v>-301.44900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>7588.897308</v>
+        <v>7588.8973079999996</v>
       </c>
       <c r="G21" s="1">
-        <v>2.108027</v>
+        <v>2.1080269999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.060000</v>
+        <v>1269.06</v>
       </c>
       <c r="I21" s="1">
-        <v>-260.194000</v>
+        <v>-260.19400000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>7599.389181</v>
+        <v>7599.3891809999996</v>
       </c>
       <c r="L21" s="1">
         <v>2.110941</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.625000</v>
+        <v>-200.625</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>7609.320107</v>
+        <v>7609.3201069999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.113700</v>
+        <v>2.1137000000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.630000</v>
+        <v>1316.63</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.355000</v>
+        <v>-183.35499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>7619.820386</v>
+        <v>7619.8203860000003</v>
       </c>
       <c r="V21" s="1">
-        <v>2.116617</v>
+        <v>2.1166170000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.450000</v>
+        <v>-170.45</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>7630.043956</v>
+        <v>7630.0439560000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.119457</v>
+        <v>2.1194570000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.310000</v>
+        <v>1347.31</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.878000</v>
+        <v>-168.87799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>7640.483719</v>
+        <v>7640.4837189999998</v>
       </c>
       <c r="AF21" s="1">
         <v>2.122357</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.819000</v>
+        <v>-178.81899999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>7650.702984</v>
+        <v>7650.7029839999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.125195</v>
+        <v>2.1251950000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1381.110000</v>
+        <v>1381.11</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.145000</v>
+        <v>-209.14500000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>7661.662891</v>
+        <v>7661.6628909999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.128240</v>
+        <v>2.1282399999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.690000</v>
+        <v>1402.69</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.364000</v>
+        <v>-253.364</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>7672.800556</v>
+        <v>7672.8005560000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.131333</v>
+        <v>2.1313330000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1427.090000</v>
+        <v>1427.09</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.874000</v>
+        <v>-313.87400000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>7683.824185</v>
+        <v>7683.8241850000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.134396</v>
+        <v>2.1343960000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.439000</v>
+        <v>-366.43900000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>7694.552111</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.137376</v>
+        <v>2.1373760000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.458000</v>
+        <v>-617.45799999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>7705.618881</v>
+        <v>7705.6188810000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.140450</v>
+        <v>2.14045</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.620000</v>
+        <v>1682.62</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1069.470000</v>
+        <v>-1069.47</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>7716.107747</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.143363</v>
+        <v>2.1433629999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1974.670000</v>
+        <v>1974.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1856.490000</v>
+        <v>-1856.49</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>7726.743493</v>
+        <v>7726.7434929999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.146318</v>
+        <v>2.1463179999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2359.370000</v>
+        <v>2359.37</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2766.870000</v>
+        <v>-2766.87</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>7738.316613</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.149532</v>
+        <v>2.1495320000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2846.810000</v>
+        <v>2846.81</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3767.590000</v>
+        <v>-3767.59</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>7751.113893</v>
+        <v>7751.1138929999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.153087</v>
+        <v>2.1530870000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4274.470000</v>
+        <v>4274.47</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6192.520000</v>
+        <v>-6192.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>7578.841417</v>
+        <v>7578.8414169999996</v>
       </c>
       <c r="B22" s="1">
-        <v>2.105234</v>
+        <v>2.1052339999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-300.647000</v>
+        <v>-300.64699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>7589.246490</v>
+        <v>7589.2464900000004</v>
       </c>
       <c r="G22" s="1">
-        <v>2.108124</v>
+        <v>2.1081240000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.910000</v>
+        <v>1268.9100000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-260.906000</v>
+        <v>-260.90600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>7599.741341</v>
+        <v>7599.7413409999999</v>
       </c>
       <c r="L22" s="1">
-        <v>2.111039</v>
+        <v>2.1110389999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.625000</v>
+        <v>-200.625</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>7609.669263</v>
+        <v>7609.6692629999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.113797</v>
+        <v>2.1137969999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.610000</v>
+        <v>1316.61</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.360000</v>
+        <v>-183.36</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>7620.473122</v>
+        <v>7620.4731220000003</v>
       </c>
       <c r="V22" s="1">
-        <v>2.116798</v>
+        <v>2.1167980000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.960000</v>
+        <v>1329.96</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.436000</v>
+        <v>-170.43600000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>7630.695694</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.119638</v>
+        <v>2.1196380000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.560000</v>
+        <v>1347.56</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>7640.862690</v>
+        <v>7640.8626899999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.122462</v>
+        <v>2.1224620000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.826000</v>
+        <v>-178.82599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>7651.082761</v>
+        <v>7651.0827609999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.125301</v>
+        <v>2.1253009999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1381.080000</v>
+        <v>1381.08</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.134000</v>
+        <v>-209.13399999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>7662.022006</v>
+        <v>7662.0220060000001</v>
       </c>
       <c r="AP22" s="1">
         <v>2.128339</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.720000</v>
+        <v>1402.72</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.374000</v>
+        <v>-253.374</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>7673.164619</v>
+        <v>7673.1646190000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.131435</v>
+        <v>2.1314350000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1427.060000</v>
+        <v>1427.06</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.912000</v>
+        <v>-313.91199999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>7684.205566</v>
+        <v>7684.2055659999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.134502</v>
+        <v>2.1345019999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.428000</v>
+        <v>-366.428</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>7694.971264</v>
+        <v>7694.9712639999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.137492</v>
+        <v>2.1374919999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.485000</v>
+        <v>-617.48500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>7705.953152</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.140543</v>
+        <v>2.1405430000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.580000</v>
+        <v>1682.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1069.420000</v>
+        <v>-1069.42</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>7716.515955</v>
+        <v>7716.5159549999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.143477</v>
+        <v>2.1434769999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1974.510000</v>
+        <v>1974.51</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1856.500000</v>
+        <v>-1856.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>7727.175478</v>
+        <v>7727.1754780000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.146438</v>
+        <v>2.1464379999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2359.200000</v>
+        <v>2359.1999999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2767.000000</v>
+        <v>-2767</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>7738.738747</v>
+        <v>7738.7387470000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.149650</v>
+        <v>2.1496499999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2846.490000</v>
+        <v>2846.49</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3767.460000</v>
+        <v>-3767.46</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>7751.652083</v>
+        <v>7751.6520829999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.153237</v>
+        <v>2.1532369999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>4296.340000</v>
+        <v>4296.34</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6178.680000</v>
+        <v>-6178.68</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>7579.183682</v>
+        <v>7579.1836819999999</v>
       </c>
       <c r="B23" s="1">
-        <v>2.105329</v>
+        <v>2.1053289999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.650000</v>
+        <v>1243.6500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.941000</v>
+        <v>-300.94099999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>7589.589757</v>
+        <v>7589.5897569999997</v>
       </c>
       <c r="G23" s="1">
-        <v>2.108219</v>
+        <v>2.1082190000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.691000</v>
+        <v>-261.69099999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>7600.082588</v>
+        <v>7600.0825880000002</v>
       </c>
       <c r="L23" s="1">
-        <v>2.111134</v>
+        <v>2.1111339999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.450000</v>
+        <v>1304.45</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.766000</v>
+        <v>-200.76599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>7610.319055</v>
+        <v>7610.3190549999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.113978</v>
+        <v>2.1139779999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.560000</v>
+        <v>1316.56</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.290000</v>
+        <v>-183.29</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>7620.851600</v>
+        <v>7620.8516</v>
       </c>
       <c r="V23" s="1">
-        <v>2.116903</v>
+        <v>2.1169030000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.418000</v>
+        <v>-170.41800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>7631.087507</v>
+        <v>7631.0875070000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.119747</v>
+        <v>2.1197469999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.763000</v>
+        <v>-168.76300000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>7641.205398</v>
+        <v>7641.2053980000001</v>
       </c>
       <c r="AF23" s="1">
         <v>2.122557</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.470000</v>
+        <v>1360.47</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.810000</v>
+        <v>-178.81</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>7651.441336</v>
+        <v>7651.4413359999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.125400</v>
+        <v>2.1254</v>
       </c>
       <c r="AL23" s="1">
-        <v>1381.080000</v>
+        <v>1381.08</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.088000</v>
+        <v>-209.08799999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>7662.381594</v>
+        <v>7662.3815940000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.128439</v>
+        <v>2.1284390000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.660000</v>
+        <v>1402.66</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>7673.594154</v>
+        <v>7673.5941540000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.131554</v>
+        <v>2.1315539999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.863000</v>
+        <v>-313.863</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>7684.618732</v>
+        <v>7684.6187319999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.134616</v>
+        <v>2.1346159999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.460000</v>
+        <v>-366.46</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>7695.284206</v>
+        <v>7695.2842060000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.137579</v>
+        <v>2.1375790000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.450000</v>
+        <v>1530.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.505000</v>
+        <v>-617.505</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>7706.331410</v>
+        <v>7706.3314099999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.140648</v>
+        <v>2.1406480000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.640000</v>
+        <v>1682.64</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1069.470000</v>
+        <v>-1069.47</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>7716.913250</v>
+        <v>7716.9132499999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.143587</v>
+        <v>2.1435870000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1974.440000</v>
+        <v>1974.44</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1856.460000</v>
+        <v>-1856.46</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>7727.601572</v>
+        <v>7727.6015719999996</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.146556</v>
+        <v>2.1465559999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2359.160000</v>
+        <v>2359.16</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2767.480000</v>
+        <v>-2767.48</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>7739.185108</v>
+        <v>7739.1851079999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.149774</v>
+        <v>2.1497739999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2846.810000</v>
+        <v>2846.81</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3766.910000</v>
+        <v>-3766.91</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>7752.194191</v>
+        <v>7752.1941909999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.153387</v>
+        <v>2.1533869999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.430000</v>
+        <v>4274.43</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6181.290000</v>
+        <v>-6181.29</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>7579.523415</v>
+        <v>7579.5234149999997</v>
       </c>
       <c r="B24" s="1">
         <v>2.105423</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.070000</v>
+        <v>1243.07</v>
       </c>
       <c r="D24" s="1">
-        <v>-301.046000</v>
+        <v>-301.04599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>7590.237993</v>
+        <v>7590.2379929999997</v>
       </c>
       <c r="G24" s="1">
-        <v>2.108399</v>
+        <v>2.1083989999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.286000</v>
+        <v>-261.286</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>7600.533485</v>
+        <v>7600.5334849999999</v>
       </c>
       <c r="L24" s="1">
         <v>2.111259</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.758000</v>
+        <v>-200.75800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>7610.715858</v>
+        <v>7610.7158579999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.114088</v>
+        <v>2.1140880000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.600000</v>
+        <v>1316.6</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.345000</v>
+        <v>-183.345</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>7621.194800</v>
+        <v>7621.1948000000002</v>
       </c>
       <c r="V24" s="1">
-        <v>2.116999</v>
+        <v>2.1169989999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.416000</v>
+        <v>-170.416</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>7631.436690</v>
+        <v>7631.4366900000005</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.119844</v>
+        <v>2.1198440000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.420000</v>
+        <v>1347.42</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.737000</v>
+        <v>-168.73699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>7641.552101</v>
+        <v>7641.5521010000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.122653</v>
+        <v>2.1226530000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.861000</v>
+        <v>-178.86099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>7651.858999</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.125516</v>
+        <v>2.1255160000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1381.080000</v>
+        <v>1381.08</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.119000</v>
+        <v>-209.119</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>7662.804683</v>
+        <v>7662.8046830000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.128557</v>
+        <v>2.1285569999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.690000</v>
+        <v>1402.69</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>7673.893739</v>
+        <v>7673.8937390000001</v>
       </c>
       <c r="AU24" s="1">
         <v>2.131637</v>
       </c>
       <c r="AV24" s="1">
-        <v>1427.090000</v>
+        <v>1427.09</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.840000</v>
+        <v>-313.83999999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>7684.919835</v>
+        <v>7684.9198349999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.134700</v>
+        <v>2.1347</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.415000</v>
+        <v>-366.41500000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>7695.645294</v>
+        <v>7695.6452939999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.137679</v>
+        <v>2.1376789999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.440000</v>
+        <v>-617.44000000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>7706.714806</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.140754</v>
+        <v>2.1407539999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.640000</v>
+        <v>1682.64</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1069.340000</v>
+        <v>-1069.3399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>7717.331873</v>
+        <v>7717.3318730000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.143703</v>
+        <v>2.1437029999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1974.520000</v>
+        <v>1974.52</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1856.440000</v>
+        <v>-1856.44</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>7728.016195</v>
+        <v>7728.0161950000002</v>
       </c>
       <c r="BT24" s="1">
         <v>2.146671</v>
       </c>
       <c r="BU24" s="1">
-        <v>2358.540000</v>
+        <v>2358.54</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2767.910000</v>
+        <v>-2767.91</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>7739.618611</v>
+        <v>7739.6186109999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.149894</v>
+        <v>2.1498940000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2846.870000</v>
+        <v>2846.87</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3767.280000</v>
+        <v>-3767.28</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>7752.735316</v>
+        <v>7752.7353160000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.153538</v>
+        <v>2.1535380000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4290.880000</v>
+        <v>4290.88</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6192.960000</v>
+        <v>-6192.96</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>7580.172182</v>
+        <v>7580.1721820000002</v>
       </c>
       <c r="B25" s="1">
-        <v>2.105603</v>
+        <v>2.1056029999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1243.570000</v>
+        <v>1243.57</v>
       </c>
       <c r="D25" s="1">
-        <v>-301.293000</v>
+        <v>-301.29300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>7590.623914</v>
+        <v>7590.6239139999998</v>
       </c>
       <c r="G25" s="1">
-        <v>2.108507</v>
+        <v>2.1085069999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.568000</v>
+        <v>-260.56799999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>7600.788396</v>
+        <v>7600.7883959999999</v>
       </c>
       <c r="L25" s="1">
-        <v>2.111330</v>
+        <v>2.1113300000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.480000</v>
+        <v>1304.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.129000</v>
+        <v>-201.12899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>7611.063027</v>
+        <v>7611.0630270000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.114184</v>
+        <v>2.1141839999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.640000</v>
+        <v>1316.64</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.314000</v>
+        <v>-183.31399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>7621.538529</v>
+        <v>7621.5385290000004</v>
       </c>
       <c r="V25" s="1">
-        <v>2.117094</v>
+        <v>2.1170939999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.950000</v>
+        <v>1329.95</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.490000</v>
+        <v>-170.49</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>7631.785906</v>
+        <v>7631.7859060000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.119941</v>
+        <v>2.1199409999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.380000</v>
+        <v>1347.38</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.787000</v>
+        <v>-168.78700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>7641.966756</v>
+        <v>7641.9667559999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.122769</v>
+        <v>2.1227689999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.440000</v>
+        <v>1360.44</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.794000</v>
+        <v>-178.79400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>7652.139207</v>
+        <v>7652.1392070000002</v>
       </c>
       <c r="AK25" s="1">
         <v>2.125594</v>
       </c>
       <c r="AL25" s="1">
-        <v>1381.130000</v>
+        <v>1381.13</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.117000</v>
+        <v>-209.11699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>7663.102282</v>
+        <v>7663.1022819999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.128640</v>
+        <v>2.1286399999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.670000</v>
+        <v>1402.67</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.386000</v>
+        <v>-253.386</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>7674.258794</v>
+        <v>7674.2587940000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.131739</v>
+        <v>2.1317390000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1427.050000</v>
+        <v>1427.05</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.857000</v>
+        <v>-313.85700000000003</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>7685.279900</v>
+        <v>7685.2799000000005</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.134800</v>
+        <v>2.1347999999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.210000</v>
+        <v>1446.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.451000</v>
+        <v>-366.45100000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>7696.006877</v>
+        <v>7696.0068769999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.137780</v>
+        <v>2.1377799999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.451000</v>
+        <v>-617.45100000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>7707.478382</v>
+        <v>7707.4783820000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.140966</v>
+        <v>2.1409660000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.570000</v>
+        <v>1682.57</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1069.460000</v>
+        <v>-1069.46</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>7717.748050</v>
+        <v>7717.7480500000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.143819</v>
+        <v>2.1438190000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1974.430000</v>
+        <v>1974.43</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1856.240000</v>
+        <v>-1856.24</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>7728.447220</v>
+        <v>7728.44722</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.146791</v>
+        <v>2.1467909999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2358.680000</v>
+        <v>2358.6799999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2768.450000</v>
+        <v>-2768.45</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>7740.039219</v>
+        <v>7740.0392190000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.150011</v>
+        <v>2.1500110000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2847.260000</v>
+        <v>2847.26</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3766.780000</v>
+        <v>-3766.78</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>7753.274467</v>
+        <v>7753.2744670000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.153687</v>
+        <v>2.1536870000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4285.950000</v>
+        <v>4285.95</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6174.860000</v>
+        <v>-6174.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>7580.550134</v>
+        <v>7580.5501340000001</v>
       </c>
       <c r="B26" s="1">
-        <v>2.105708</v>
+        <v>2.1057079999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.470000</v>
+        <v>1243.47</v>
       </c>
       <c r="D26" s="1">
-        <v>-301.231000</v>
+        <v>-301.23099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>7590.968135</v>
+        <v>7590.9681350000001</v>
       </c>
       <c r="G26" s="1">
-        <v>2.108602</v>
+        <v>2.1086019999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="I26" s="1">
-        <v>-260.719000</v>
+        <v>-260.71899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>7601.132620</v>
+        <v>7601.1326200000003</v>
       </c>
       <c r="L26" s="1">
-        <v>2.111426</v>
+        <v>2.1114259999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.700000</v>
+        <v>1304.7</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.676000</v>
+        <v>-200.67599999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>7611.413198</v>
+        <v>7611.4131980000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.114281</v>
+        <v>2.1142810000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.570000</v>
+        <v>1316.57</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.345000</v>
+        <v>-183.345</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>7621.952191</v>
+        <v>7621.9521910000003</v>
       </c>
       <c r="V26" s="1">
-        <v>2.117209</v>
+        <v>2.1172089999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.960000</v>
+        <v>1329.96</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.380000</v>
+        <v>-170.38</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>7632.214949</v>
+        <v>7632.2149490000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.120060</v>
+        <v>2.1200600000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.440000</v>
+        <v>1347.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.822000</v>
+        <v>-168.822</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>7642.262372</v>
+        <v>7642.2623720000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.122851</v>
+        <v>2.1228509999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.867000</v>
+        <v>-178.86699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>7652.490408</v>
+        <v>7652.4904079999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.125692</v>
+        <v>2.1256919999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1381.120000</v>
+        <v>1381.12</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.119000</v>
+        <v>-209.119</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>7663.461384</v>
+        <v>7663.4613840000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.128739</v>
+        <v>2.1287389999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.710000</v>
+        <v>1402.71</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.362000</v>
+        <v>-253.36199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>7674.625339</v>
+        <v>7674.6253390000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.131840</v>
+        <v>2.13184</v>
       </c>
       <c r="AV26" s="1">
-        <v>1427.110000</v>
+        <v>1427.11</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.864000</v>
+        <v>-313.86399999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>7685.850796</v>
+        <v>7685.8507959999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.134959</v>
+        <v>2.1349589999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.412000</v>
+        <v>-366.41199999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>7696.727564</v>
+        <v>7696.7275639999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.137980</v>
+        <v>2.1379800000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.481000</v>
+        <v>-617.48099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>7707.852829</v>
+        <v>7707.8528290000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.141070</v>
+        <v>2.14107</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.620000</v>
+        <v>1682.62</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1069.420000</v>
+        <v>-1069.42</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>7718.153777</v>
+        <v>7718.1537770000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.143932</v>
+        <v>2.1439319999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1974.430000</v>
+        <v>1974.43</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1856.280000</v>
+        <v>-1856.28</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>7728.874771</v>
+        <v>7728.8747709999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.146910</v>
+        <v>2.1469100000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2358.840000</v>
+        <v>2358.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2768.790000</v>
+        <v>-2768.79</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>7740.762882</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.150212</v>
+        <v>2.1502119999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2847.250000</v>
+        <v>2847.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3766.800000</v>
+        <v>-3766.8</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>7754.117168</v>
+        <v>7754.1171679999998</v>
       </c>
       <c r="CD26" s="1">
         <v>2.153921</v>
       </c>
       <c r="CE26" s="1">
-        <v>4292.680000</v>
+        <v>4292.68</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6189.110000</v>
+        <v>-6189.11</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>